--- a/csm_a.xlsx
+++ b/csm_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SF-02</t>
+          <t>FF-08</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SF-02</t>
+          <t>FF-08</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SF-02</t>
+          <t>FF-08</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -598,17 +598,367 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SF-02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7036331271</t>
-        </is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7036331271</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>premyajjalaa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21a51a4233</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mohit Kumar Panigrahi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>9849308561</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>panigrahimohith2017@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21a51a4204</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Balivada Venkata Sharmila</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>7993119129</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sharmilaraobalivada@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21a51a4201</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anga Kishor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9392263949</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kishoranga04@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21a51a4207</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>killamsetty Gangotri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>6304840025</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>gangotrikillamsetty60101@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21a51a4205</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gurana Pravallika</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>9676760324</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>guranapravallikasp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21a51a4202</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Uppalapati Sai Krishna Varma</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9676426462</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>varmauppalapati28@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21a51a4214</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tamada Rushanth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9908068467</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>tamadarushanth1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21a51a4232</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kousik Basava</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>8187858713</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>koushikbasava5@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21a51a4244</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Balaka Ramjee</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>7989389116</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ramjeebalaka14@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21a51a4211</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chodi Sai Kishore</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7801056541</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>chodisaikishore@gmail.com</t>
         </is>
       </c>
     </row>

--- a/csm_a.xlsx
+++ b/csm_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,14 +951,434 @@
           <t>FF-08</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7801056541</t>
-        </is>
+      <c r="F15" t="n">
+        <v>7801056541</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>chodisaikishore@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21a51a4234</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kousik Basava</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>8187858713</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>koushikbasava5@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21a51a4225</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Maddi Sai Srinivas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8341773723</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>saisrinivasmaddiaitam@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>21a51a4209</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Savirigana Inusha</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>9014707594</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>saviriganai@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>21a51a42438</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nanubolu Bhavana</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>7680844295</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>nanubolubhavana@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>21a51a42466</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mani Chandh</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>8919815645</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>mani@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21a51a4258</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tandasa Udita</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>9381042683</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>uditaprasanna42@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21a51a4245</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kanchumoju Lohith Kumar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>9182588112</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>karunakaruna7207@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21a51a4215</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chelluru Anusri</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>7995326478</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>chelluruanusri@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21a51a4241</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Challa Meghana</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>6304551538</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>challameghana24@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21a51a4232</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Varanasi Ritish</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>7780280887</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ritishvaranasi59@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21a51a4254</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Baratam Venkata Manoj</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6300672090</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>manojbaratam02@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>21a51a4229</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Akella Venkata Laxmi Srikar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>csm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FF-08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7989436126</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>srikar.akella03@gmail.com</t>
         </is>
       </c>
     </row>
